--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11273.69280970569</v>
+        <v>2243464.869131433</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11273.69280970569</v>
+        <v>2243464.869131433</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20055.07048818935</v>
+        <v>1203884.954478962</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20055.07048818935</v>
+        <v>1203884.954478962</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960546851.4963677</v>
+        <v>40584941.01343793</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10077.19543117445</v>
+        <v>1104359.74237419</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18304.13445439086</v>
+        <v>1891470.392582061</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26531.07347760725</v>
+        <v>2678581.042789934</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34913.33359916713</v>
+        <v>3454439.030120489</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43234.66455330696</v>
+        <v>4241308.961451043</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51555.99550744679</v>
+        <v>5028178.892781598</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59877.32646158663</v>
+        <v>5815048.824112149</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68198.65741572647</v>
+        <v>6601918.7554427</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77084.54465344019</v>
+        <v>7322827.687523117</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86065.46219418419</v>
+        <v>8062647.649906566</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>94848.32472059061</v>
+        <v>8817465.636669124</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>103609.8054288152</v>
+        <v>9568028.641613502</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112371.2861370398</v>
+        <v>10318591.64655788</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121132.7668452644</v>
+        <v>11069154.65150226</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130149.1539180164</v>
+        <v>11808281.55817981</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>318</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>186</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
